--- a/static/excel/Trash Collection - Manual.xlsx
+++ b/static/excel/Trash Collection - Manual.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13580" yWindow="460" windowWidth="19940" windowHeight="15660" tabRatio="500"/>
+    <workbookView xWindow="1780" yWindow="460" windowWidth="27820" windowHeight="20360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -204,6 +204,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,7 +485,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -503,7 +504,7 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="11"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.25">
